--- a/data/GlycoNet Milestones Template.xlsx
+++ b/data/GlycoNet Milestones Template.xlsx
@@ -36,6 +36,9 @@
     <t>Year 1</t>
   </si>
   <si>
+    <t>Year 2</t>
+  </si>
+  <si>
     <t>University</t>
   </si>
   <si>
@@ -70,9 +73,6 @@
   </si>
   <si>
     <t xml:space="preserve">Please highlight in red the milestone with Go/No-go decision </t>
-  </si>
-  <si>
-    <t>Year 2 (6 months)</t>
   </si>
 </sst>
 </file>
@@ -473,177 +473,204 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1114,8 +1141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IR20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1124,125 +1151,135 @@
     <col min="2" max="2" width="39" style="1" customWidth="1"/>
     <col min="3" max="4" width="52.1796875" style="1" customWidth="1"/>
     <col min="5" max="8" width="14.6328125" style="1"/>
-    <col min="9" max="9" width="13.36328125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.36328125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.1796875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.36328125" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="13" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="13.36328125" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="13.1796875" style="1" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="52.1796875" style="1" customWidth="1"/>
     <col min="14" max="14" width="45.90625" style="1" customWidth="1"/>
     <col min="15" max="15" width="44" style="1" customWidth="1"/>
     <col min="16" max="16384" width="14.6328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:252" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:252" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-    </row>
-    <row r="2" spans="1:252" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+    </row>
+    <row r="2" spans="1:252" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-    </row>
-    <row r="3" spans="1:252" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+    </row>
+    <row r="3" spans="1:252" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-    </row>
-    <row r="4" spans="1:252" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+    </row>
+    <row r="4" spans="1:252" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-    </row>
-    <row r="5" spans="1:252" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="49" t="s">
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+    </row>
+    <row r="5" spans="1:252" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="41"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:252" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+    </row>
+    <row r="7" spans="1:252" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="52" t="s">
         <v>16</v>
-      </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="5"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-    </row>
-    <row r="6" spans="1:252" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-    </row>
-    <row r="7" spans="1:252" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="M7" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="N7" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="O7" s="15" t="s">
-        <v>15</v>
       </c>
       <c r="P7"/>
       <c r="Q7"/>
@@ -1482,153 +1519,153 @@
       <c r="IQ7"/>
       <c r="IR7"/>
     </row>
-    <row r="8" spans="1:252" s="25" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="16"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="24"/>
+    <row r="8" spans="1:252" s="17" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="16"/>
     </row>
     <row r="9" spans="1:252" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="33"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="25"/>
     </row>
     <row r="10" spans="1:252" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="33"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="25"/>
     </row>
     <row r="11" spans="1:252" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="33"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="25"/>
     </row>
     <row r="12" spans="1:252" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="33"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="25"/>
     </row>
     <row r="13" spans="1:252" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="33"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="25"/>
     </row>
     <row r="14" spans="1:252" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="33"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="25"/>
     </row>
     <row r="15" spans="1:252" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="33"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="25"/>
     </row>
     <row r="16" spans="1:252" x14ac:dyDescent="0.25">
-      <c r="I16" s="34"/>
+      <c r="I16" s="26"/>
     </row>
     <row r="17" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A17" s="35"/>
+      <c r="A17" s="27"/>
     </row>
     <row r="18" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="D18" s="36"/>
+      <c r="D18" s="28"/>
     </row>
     <row r="20" spans="1:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="A20" s="35"/>
+      <c r="A20" s="27"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
